--- a/Task Files/MONTHLY-Masters.xlsx
+++ b/Task Files/MONTHLY-Masters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46CA781-F1EE-48E4-9182-59E12974F1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8D9945-0FB5-4DED-9903-405CA6198441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="1076">
   <si>
     <t>S.no.</t>
   </si>
@@ -3338,6 +3338,24 @@
   </si>
   <si>
     <t>Monthly Job</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>tey</t>
+  </si>
+  <si>
+    <t>wef</t>
+  </si>
+  <si>
+    <t>month:</t>
   </si>
 </sst>
 </file>
@@ -5661,8 +5679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5716,13 +5734,13 @@
       <c r="B3" s="160" t="s">
         <v>907</v>
       </c>
-      <c r="C3" s="160"/>
+      <c r="C3" s="160" t="s">
+        <v>915</v>
+      </c>
       <c r="D3" s="199" t="s">
         <v>957</v>
       </c>
-      <c r="E3" s="160" t="s">
-        <v>915</v>
-      </c>
+      <c r="E3" s="160"/>
       <c r="G3" s="162">
         <v>2025</v>
       </c>
@@ -5739,9 +5757,7 @@
       <c r="D4" s="111" t="s">
         <v>983</v>
       </c>
-      <c r="E4" s="236" t="s">
-        <v>915</v>
-      </c>
+      <c r="E4" s="160"/>
       <c r="G4" s="158" t="s">
         <v>612</v>
       </c>
@@ -5756,123 +5772,113 @@
       <c r="B5" s="199" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D5" s="111" t="s">
         <v>984</v>
       </c>
-      <c r="E5" s="199" t="s">
-        <v>915</v>
-      </c>
+      <c r="E5" s="160"/>
       <c r="G5" s="158" t="s">
         <v>929</v>
       </c>
-      <c r="H5" s="111"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="199"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="111"/>
       <c r="B6" s="111" t="s">
         <v>743</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D6" s="111" t="s">
         <v>985</v>
       </c>
-      <c r="E6" s="111" t="s">
-        <v>915</v>
-      </c>
-      <c r="H6" s="111"/>
+      <c r="E6" s="160"/>
+      <c r="H6" s="199"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1">
       <c r="A7" s="190"/>
       <c r="B7" s="111" t="s">
         <v>902</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D7" s="111" t="s">
         <v>986</v>
       </c>
-      <c r="E7" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E7" s="160"/>
       <c r="G7" s="162">
         <v>2026</v>
       </c>
-      <c r="H7" s="111"/>
+      <c r="H7" s="199"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="190"/>
       <c r="B8" s="111" t="s">
         <v>903</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D8" s="111" t="s">
         <v>987</v>
       </c>
-      <c r="E8" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E8" s="160"/>
       <c r="G8" s="163" t="s">
         <v>613</v>
       </c>
-      <c r="H8" s="111"/>
+      <c r="H8" s="199"/>
     </row>
     <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="190"/>
       <c r="B9" s="111" t="s">
         <v>904</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D9" s="111" t="s">
         <v>988</v>
       </c>
-      <c r="E9" s="111"/>
+      <c r="E9" s="160"/>
       <c r="G9" s="158" t="s">
         <v>762</v>
       </c>
-      <c r="H9" s="165"/>
+      <c r="H9" s="199"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="111"/>
       <c r="B10" s="165" t="s">
         <v>761</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D10" s="111" t="s">
         <v>989</v>
       </c>
-      <c r="E10" s="165" t="s">
-        <v>915</v>
-      </c>
-      <c r="H10" s="111"/>
+      <c r="E10" s="160"/>
+      <c r="H10" s="199"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1">
       <c r="A11" s="190"/>
       <c r="B11" s="111" t="s">
         <v>1058</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D11" s="164" t="s">
         <v>366</v>
       </c>
-      <c r="E11" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E11" s="160"/>
       <c r="G11" s="162">
         <v>2027</v>
       </c>
-      <c r="H11" s="111"/>
+      <c r="H11" s="199"/>
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="190" t="s">
@@ -5881,19 +5887,17 @@
       <c r="B12" s="111" t="s">
         <v>633</v>
       </c>
-      <c r="C12" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="C12" s="236"/>
       <c r="D12" s="199" t="s">
         <v>990</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="160" t="s">
         <v>915</v>
       </c>
       <c r="G12" s="163" t="s">
         <v>622</v>
       </c>
-      <c r="H12" s="111"/>
+      <c r="H12" s="199"/>
     </row>
     <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="190" t="s">
@@ -5902,12 +5906,12 @@
       <c r="B13" s="111" t="s">
         <v>905</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="236"/>
       <c r="D13" s="111" t="s">
         <v>991</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="H13" s="111"/>
+      <c r="E13" s="160"/>
+      <c r="H13" s="199"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1">
       <c r="A14" s="190" t="s">
@@ -5916,28 +5920,30 @@
       <c r="B14" s="111" t="s">
         <v>906</v>
       </c>
-      <c r="C14" s="111"/>
+      <c r="C14" s="236"/>
       <c r="D14" s="111" t="s">
         <v>1060</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="160" t="s">
         <v>915</v>
       </c>
       <c r="G14" s="162">
         <v>2029</v>
       </c>
-      <c r="H14" s="165"/>
+      <c r="H14" s="199"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="111"/>
       <c r="B15" s="165" t="s">
         <v>1062</v>
       </c>
-      <c r="C15" s="165"/>
+      <c r="C15" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D15" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="165"/>
+      <c r="E15" s="160"/>
       <c r="G15" s="163" t="s">
         <v>926</v>
       </c>
@@ -5950,59 +5956,61 @@
       <c r="B16" s="199" t="s">
         <v>1027</v>
       </c>
-      <c r="C16" s="199"/>
+      <c r="C16" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D16" s="111" t="s">
         <v>992</v>
       </c>
-      <c r="E16" s="199" t="s">
-        <v>915</v>
-      </c>
-      <c r="H16" s="111"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+      <c r="E16" s="160"/>
+      <c r="H16" s="199"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1">
       <c r="A17" s="111"/>
       <c r="B17" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="111"/>
+      <c r="C17" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D17" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E17" s="160"/>
       <c r="G17" s="162">
         <v>2030</v>
       </c>
-      <c r="H17" s="111"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="199"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="111"/>
       <c r="B18" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="111"/>
+      <c r="C18" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D18" s="111" t="s">
         <v>993</v>
       </c>
-      <c r="E18" s="111"/>
+      <c r="E18" s="160"/>
       <c r="G18" s="163" t="s">
         <v>763</v>
       </c>
-      <c r="H18" s="111"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="199"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="111"/>
       <c r="B19" s="111" t="s">
         <v>351</v>
       </c>
-      <c r="C19" s="111"/>
+      <c r="C19" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D19" s="111" t="s">
         <v>994</v>
       </c>
-      <c r="E19" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E19" s="160"/>
       <c r="H19" s="111"/>
     </row>
     <row r="20" spans="1:8" ht="15.75">
@@ -6010,11 +6018,13 @@
       <c r="B20" s="111" t="s">
         <v>350</v>
       </c>
-      <c r="C20" s="111"/>
+      <c r="C20" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D20" s="111" t="s">
         <v>995</v>
       </c>
-      <c r="E20" s="111"/>
+      <c r="E20" s="160"/>
       <c r="H20" s="199"/>
     </row>
     <row r="21" spans="1:8" ht="30.75">
@@ -6022,13 +6032,13 @@
       <c r="B21" s="199" t="s">
         <v>900</v>
       </c>
-      <c r="C21" s="199"/>
+      <c r="C21" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D21" s="200" t="s">
         <v>996</v>
       </c>
-      <c r="E21" s="199" t="s">
-        <v>915</v>
-      </c>
+      <c r="E21" s="160"/>
       <c r="H21" s="111"/>
     </row>
     <row r="22" spans="1:8" ht="15.75">
@@ -6036,55 +6046,53 @@
       <c r="B22" s="111" t="s">
         <v>901</v>
       </c>
-      <c r="C22" s="111"/>
+      <c r="C22" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D22" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E22" s="160"/>
       <c r="H22" s="111"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="111"/>
       <c r="B23" s="111" t="s">
         <v>766</v>
       </c>
-      <c r="C23" s="111"/>
+      <c r="C23" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D23" s="111" t="s">
         <v>997</v>
       </c>
-      <c r="E23" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E23" s="160"/>
       <c r="H23" s="111"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="111"/>
       <c r="B24" s="111" t="s">
         <v>632</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D24" s="164" t="s">
         <v>366</v>
       </c>
-      <c r="E24" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E24" s="160"/>
       <c r="H24" s="111"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="111"/>
       <c r="B25" s="111"/>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D25" s="111" t="s">
         <v>998</v>
       </c>
-      <c r="E25" s="111"/>
+      <c r="E25" s="160"/>
       <c r="H25" s="111"/>
     </row>
     <row r="26" spans="1:8" ht="15.75">
@@ -6092,15 +6100,13 @@
       <c r="B26" s="111" t="s">
         <v>1035</v>
       </c>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D26" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E26" s="160"/>
       <c r="H26" s="199"/>
     </row>
     <row r="27" spans="1:8" ht="15.75">
@@ -6108,13 +6114,13 @@
       <c r="B27" s="199" t="s">
         <v>600</v>
       </c>
-      <c r="C27" s="199" t="s">
+      <c r="C27" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D27" s="111" t="s">
         <v>999</v>
       </c>
-      <c r="E27" s="199"/>
+      <c r="E27" s="160"/>
       <c r="H27" s="111"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
@@ -6122,13 +6128,11 @@
       <c r="B28" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D28" s="199"/>
-      <c r="E28" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="E28" s="160"/>
       <c r="H28" s="111"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
@@ -6136,11 +6140,11 @@
       <c r="B29" s="111" t="s">
         <v>555</v>
       </c>
-      <c r="C29" s="111"/>
+      <c r="C29" s="236"/>
       <c r="D29" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="111"/>
+      <c r="E29" s="160"/>
       <c r="H29" s="111"/>
     </row>
     <row r="30" spans="1:8" ht="15.75">
@@ -6148,13 +6152,11 @@
       <c r="B30" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="C30" s="236"/>
       <c r="D30" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="111"/>
+      <c r="E30" s="160"/>
       <c r="H30" s="199"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
@@ -6162,11 +6164,13 @@
       <c r="B31" s="199" t="s">
         <v>976</v>
       </c>
-      <c r="C31" s="199"/>
+      <c r="C31" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D31" s="111" t="s">
         <v>1000</v>
       </c>
-      <c r="E31" s="199"/>
+      <c r="E31" s="160"/>
       <c r="H31" s="160"/>
     </row>
     <row r="32" spans="1:8" ht="15.75">
@@ -6174,7 +6178,7 @@
       <c r="B32" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="160" t="s">
+      <c r="C32" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D32" s="199"/>
@@ -6186,41 +6190,39 @@
       <c r="B33" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="111" t="s">
-        <v>915</v>
-      </c>
+      <c r="C33" s="236"/>
       <c r="D33" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="111"/>
+      <c r="E33" s="160"/>
       <c r="H33" s="111"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="111"/>
       <c r="B34" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="111" t="s">
+      <c r="C34" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D34" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="111"/>
+      <c r="E34" s="160"/>
       <c r="H34" s="111"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="111"/>
       <c r="B35" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D35" s="111" t="s">
         <v>623</v>
       </c>
-      <c r="E35" s="111"/>
+      <c r="E35" s="160"/>
       <c r="H35" s="161"/>
     </row>
     <row r="36" spans="1:8" ht="23.25">
@@ -6228,11 +6230,11 @@
       <c r="B36" s="161" t="s">
         <v>1002</v>
       </c>
-      <c r="C36" s="161"/>
+      <c r="C36" s="236"/>
       <c r="D36" s="164" t="s">
         <v>366</v>
       </c>
-      <c r="E36" s="161"/>
+      <c r="E36" s="160"/>
       <c r="H36" s="168"/>
     </row>
     <row r="37" spans="1:8" ht="23.25">
@@ -6240,11 +6242,11 @@
       <c r="B37" s="168" t="s">
         <v>773</v>
       </c>
-      <c r="C37" s="168" t="s">
+      <c r="C37" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D37" s="199"/>
-      <c r="E37" s="168"/>
+      <c r="E37" s="160"/>
       <c r="H37" s="111"/>
     </row>
     <row r="38" spans="1:8" ht="15.75">
@@ -6252,11 +6254,13 @@
       <c r="B38" s="111" t="s">
         <v>774</v>
       </c>
-      <c r="C38" s="111"/>
+      <c r="C38" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D38" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="111"/>
+      <c r="E38" s="160"/>
       <c r="H38" s="199"/>
     </row>
     <row r="39" spans="1:8" ht="15.75">
@@ -6264,11 +6268,13 @@
       <c r="B39" s="199" t="s">
         <v>975</v>
       </c>
-      <c r="C39" s="199"/>
+      <c r="C39" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D39" s="111" t="s">
         <v>353</v>
       </c>
-      <c r="E39" s="199"/>
+      <c r="E39" s="160"/>
       <c r="H39" s="164"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
@@ -6278,13 +6284,11 @@
       <c r="B40" s="164" t="s">
         <v>317</v>
       </c>
-      <c r="C40" s="164" t="s">
-        <v>915</v>
-      </c>
+      <c r="C40" s="236"/>
       <c r="D40" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="E40" s="164"/>
+      <c r="E40" s="160"/>
       <c r="H40" s="164"/>
     </row>
     <row r="41" spans="1:8" ht="15.75">
@@ -6294,11 +6298,11 @@
       <c r="B41" s="164" t="s">
         <v>318</v>
       </c>
-      <c r="C41" s="164"/>
+      <c r="C41" s="236"/>
       <c r="D41" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="164"/>
+      <c r="E41" s="160"/>
       <c r="H41" s="238"/>
     </row>
     <row r="42" spans="1:8" ht="15.75">
@@ -6306,13 +6310,13 @@
       <c r="B42" s="166" t="s">
         <v>601</v>
       </c>
-      <c r="C42" s="238" t="s">
+      <c r="C42" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D42" s="158" t="s">
         <v>927</v>
       </c>
-      <c r="E42" s="238"/>
+      <c r="E42" s="160"/>
       <c r="H42" s="238"/>
     </row>
     <row r="43" spans="1:8" ht="15.75">
@@ -6320,11 +6324,13 @@
       <c r="B43" s="166" t="s">
         <v>936</v>
       </c>
-      <c r="C43" s="238"/>
+      <c r="C43" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D43" s="158" t="s">
         <v>928</v>
       </c>
-      <c r="E43" s="238"/>
+      <c r="E43" s="160"/>
       <c r="H43" s="120"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
@@ -6332,11 +6338,11 @@
       <c r="B44" s="120" t="s">
         <v>977</v>
       </c>
-      <c r="C44" s="120" t="s">
+      <c r="C44" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D44" s="164"/>
-      <c r="E44" s="120"/>
+      <c r="E44" s="160"/>
       <c r="H44" s="120"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
@@ -6344,29 +6350,27 @@
       <c r="B45" s="120" t="s">
         <v>637</v>
       </c>
-      <c r="C45" s="120"/>
+      <c r="C45" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D45" s="199" t="s">
         <v>979</v>
       </c>
-      <c r="E45" s="120" t="s">
-        <v>915</v>
-      </c>
+      <c r="E45" s="160"/>
       <c r="H45" s="164"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="111"/>
       <c r="B46" s="164" t="s">
         <v>937</v>
       </c>
-      <c r="C46" s="164" t="s">
+      <c r="C46" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D46" s="164" t="s">
         <v>366</v>
       </c>
-      <c r="E46" s="164" t="s">
-        <v>915</v>
-      </c>
+      <c r="E46" s="160"/>
       <c r="G46" s="167"/>
       <c r="H46" s="161"/>
     </row>
@@ -6375,13 +6379,13 @@
       <c r="B47" s="161" t="s">
         <v>765</v>
       </c>
-      <c r="C47" s="161"/>
+      <c r="C47" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D47" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="161" t="s">
-        <v>915</v>
-      </c>
+      <c r="E47" s="160"/>
       <c r="H47" s="191"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
@@ -6389,41 +6393,39 @@
       <c r="B48" s="191" t="s">
         <v>925</v>
       </c>
-      <c r="C48" s="191" t="s">
+      <c r="C48" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D48" s="111" t="s">
         <v>1020</v>
       </c>
-      <c r="E48" s="191" t="s">
-        <v>915</v>
-      </c>
+      <c r="E48" s="160"/>
       <c r="H48" s="164"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="111"/>
       <c r="B49" s="164"/>
-      <c r="C49" s="164"/>
+      <c r="C49" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D49" s="111" t="s">
         <v>980</v>
       </c>
-      <c r="E49" s="164" t="s">
-        <v>83</v>
-      </c>
+      <c r="E49" s="160"/>
       <c r="H49" s="164"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="111"/>
       <c r="B50" s="164" t="s">
         <v>921</v>
       </c>
-      <c r="C50" s="164" t="s">
+      <c r="C50" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D50" s="111" t="s">
         <v>981</v>
       </c>
-      <c r="E50" s="164"/>
+      <c r="E50" s="160"/>
       <c r="H50" s="164"/>
     </row>
     <row r="51" spans="1:8" ht="15.75">
@@ -6431,11 +6433,13 @@
       <c r="B51" s="164" t="s">
         <v>922</v>
       </c>
-      <c r="C51" s="164"/>
+      <c r="C51" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D51" s="111" t="s">
         <v>982</v>
       </c>
-      <c r="E51" s="164"/>
+      <c r="E51" s="160"/>
       <c r="H51" s="209"/>
     </row>
     <row r="52" spans="1:8" ht="15.75">
@@ -6443,15 +6447,13 @@
       <c r="B52" s="209" t="s">
         <v>924</v>
       </c>
-      <c r="C52" s="209" t="s">
+      <c r="C52" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D52" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="E52" s="209" t="s">
-        <v>915</v>
-      </c>
+      <c r="E52" s="160"/>
       <c r="H52" s="166"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
@@ -6459,23 +6461,25 @@
       <c r="B53" s="166" t="s">
         <v>958</v>
       </c>
-      <c r="C53" s="166"/>
+      <c r="C53" s="236" t="s">
+        <v>915</v>
+      </c>
       <c r="D53" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="166"/>
+      <c r="E53" s="160"/>
       <c r="H53" s="161"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="111"/>
       <c r="B54" s="161" t="s">
         <v>1034</v>
       </c>
-      <c r="C54" s="161" t="s">
+      <c r="C54" s="236" t="s">
         <v>915</v>
       </c>
       <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
+      <c r="E54" s="160"/>
     </row>
   </sheetData>
   <pageMargins left="0.14000000000000001" right="0.11" top="0" bottom="0" header="0" footer="0"/>
@@ -9700,7 +9704,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -13896,12 +13900,49 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B5" t="s">
+        <v>915</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17007,7 +17048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B5:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="G4" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
